--- a/Deliverable_3/Blackbear-Consultants_Deliverable_3_ProductBacklog_5.xlsx
+++ b/Deliverable_3/Blackbear-Consultants_Deliverable_3_ProductBacklog_5.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Desktop\College_Work\Blackbear-Consultants\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullahkarim/Documents/GitHub/Blackbear-Consultants/Deliverable_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{467B63F6-6DF3-44F7-A614-4F233808CEC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7858314-C108-9B4C-B830-6598ACED45D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="24000" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17080" windowHeight="12460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprints 1-3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 4 and 5" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_gjdgxs" localSheetId="0">'Sprint 1'!$B$23</definedName>
+    <definedName name="_gjdgxs" localSheetId="0">'Sprints 1-3'!$B$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -184,7 +184,7 @@
     <t>2, 3, 4, 5</t>
   </si>
   <si>
-    <t>5…</t>
+    <t>Sp</t>
   </si>
 </sst>
 </file>
@@ -724,22 +724,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:N59"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="136.875" customWidth="1"/>
+    <col min="2" max="2" width="136.83203125" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,14 +759,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="16">
+        <v>2</v>
+      </c>
       <c r="D2" s="16" t="s">
         <v>43</v>
       </c>
@@ -781,7 +783,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -808,7 +810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -838,7 +840,7 @@
       </c>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -866,7 +868,7 @@
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -894,7 +896,7 @@
       </c>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -920,7 +922,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -943,14 +945,16 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="16">
+        <v>2</v>
+      </c>
       <c r="D9" s="16" t="s">
         <v>42</v>
       </c>
@@ -965,7 +969,7 @@
       </c>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -986,7 +990,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1004,14 +1008,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="16">
+        <v>3</v>
+      </c>
       <c r="D12" s="16" t="s">
         <v>42</v>
       </c>
@@ -1023,7 +1029,7 @@
       </c>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1059,14 +1065,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="16">
+        <v>2</v>
+      </c>
       <c r="D15" s="16" t="s">
         <v>42</v>
       </c>
@@ -1077,7 +1085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1095,14 +1103,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="16">
+        <v>3</v>
+      </c>
       <c r="D17" s="16" t="s">
         <v>44</v>
       </c>
@@ -1113,7 +1123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1131,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1149,14 +1159,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="16">
+        <v>1</v>
+      </c>
       <c r="D20" s="16" t="s">
         <v>42</v>
       </c>
@@ -1167,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1185,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1203,7 +1215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1221,7 +1233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1239,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1275,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1293,11 +1305,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F31" s="12"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" s="9"/>
     </row>
   </sheetData>
@@ -1310,22 +1324,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248A03B3-FB6E-4397-91FC-E98A3E658AB9}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="136.875" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="136.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1369,7 +1383,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1398,7 +1412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1428,7 +1442,7 @@
       </c>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1456,7 +1470,7 @@
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1486,7 +1500,7 @@
       </c>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1512,7 +1526,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1535,7 +1549,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1559,7 +1573,7 @@
       </c>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1580,7 +1594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1598,15 +1612,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>51</v>
+      <c r="C12" s="16">
+        <v>5</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>42</v>
@@ -1619,7 +1633,7 @@
       </c>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1637,7 +1651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1655,14 +1669,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="16">
+        <v>4</v>
+      </c>
       <c r="D15" s="16" t="s">
         <v>42</v>
       </c>
@@ -1673,14 +1689,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="16">
+        <v>4</v>
+      </c>
       <c r="D16" s="16" t="s">
         <v>43</v>
       </c>
@@ -1691,7 +1709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1709,7 +1727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1727,7 +1745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1747,7 +1765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1767,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1787,7 +1805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1805,7 +1823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1823,7 +1841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1841,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1859,7 +1877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1877,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1895,11 +1913,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F31" s="12"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" s="9"/>
     </row>
   </sheetData>
